--- a/src/test/resources/mysmoketestdata (1).xlsx
+++ b/src/test/resources/mysmoketestdata (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barika\IdeaProjects\B151Cucumber\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098AADE8-65A6-4A50-9F3B-3AD38BA43996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118E8D35-581E-4EDF-B664-909D5F11515F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>admin123!</t>
+  </si>
+  <si>
+    <t>jack@gmail.com</t>
+  </si>
+  <si>
+    <t>jack123!</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -418,10 +424,17 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{3C990634-38B8-4C7A-A3F4-4FA428F3A396}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>